--- a/biology/Zoologie/Hamster_de_Turquie/Hamster_de_Turquie.xlsx
+++ b/biology/Zoologie/Hamster_de_Turquie/Hamster_de_Turquie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mesocricetus brandti
-Le Hamster de Turquie (Mesocricetus brandti) est une espèce de Hamsters qui se rapproche beaucoup du Hamster doré. Il est utilisé comme animal de laboratoire pour les recherches scientifiques. Il est disponible pour certains propriétaires d'animaux aux États-Unis, mais il est moins populaire que le hamster doré à cause de son tempérament plus agressif[réf. nécessaire]. L'espèce est aussi appelée Hamster turc ou Hamster géorgien[1],[2].
+Le Hamster de Turquie (Mesocricetus brandti) est une espèce de Hamsters qui se rapproche beaucoup du Hamster doré. Il est utilisé comme animal de laboratoire pour les recherches scientifiques. Il est disponible pour certains propriétaires d'animaux aux États-Unis, mais il est moins populaire que le hamster doré à cause de son tempérament plus agressif[réf. nécessaire]. L'espèce est aussi appelée Hamster turc ou Hamster géorgien,.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Habitat d'origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On le retrouve principalement en Anatolie et dans les environs de la Mer Noire. Sa population s'étend vers l'est dans le Caucase (Arménie, Géorgie et Azerbaïdjan)[3], et vers le sud jusqu'au nord-ouest de l'Iran[4], au nord de l'Irak, à la Syrie, au Liban et au nord d'Israël[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On le retrouve principalement en Anatolie et dans les environs de la Mer Noire. Sa population s'étend vers l'est dans le Caucase (Arménie, Géorgie et Azerbaïdjan), et vers le sud jusqu'au nord-ouest de l'Iran, au nord de l'Irak, à la Syrie, au Liban et au nord d'Israël.
 </t>
         </is>
       </c>
